--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1306899.150660361</v>
+        <v>1357642.362335169</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760734</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7116302.113630857</v>
+        <v>7586741.543805782</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +667,13 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>219.7347575130983</v>
       </c>
       <c r="F2" t="n">
-        <v>227.9209612632197</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -710,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>186.8213570434105</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>133.9073134702965</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -902,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>196.2309029857745</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>96.86449739519617</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>131.0868324208431</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1105,16 +1107,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.466802178091175</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>135.7074041394964</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1148,10 +1150,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>346.17149958996</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.26000286531839</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.124992683647392</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>326.8715430934776</v>
       </c>
       <c r="H11" t="n">
-        <v>241.7344900980682</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1537,7 +1539,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831891</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>115.105571630335</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>131.8616648627614</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>186.9176635037738</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1661,10 +1663,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1771,7 +1773,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1780,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.6299102505532</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040147022</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>48.83731858401001</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2014,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>96.97306878860188</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>151.8031661589857</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2144,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.407937846523797</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>146.1447286778228</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>53.54046767788311</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>25.45817320599514</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>196.5754472546535</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>127.3780140126816</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>169.6356194967391</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3004,16 +3006,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>37.74361768022775</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3196,13 +3198,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.321365974035193</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3238,13 +3240,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>168.916462397167</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>254.004293695596</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>25.45817320599784</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3724,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>40.0960608702954</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>221.4655660477372</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2640267913362</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170407</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>47.59708018839112</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>251.1229502582108</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>129.2963391909645</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>103.0767555432928</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4147,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>236.6560830795647</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>671.8344049296902</v>
+        <v>1470.793562292065</v>
       </c>
       <c r="C2" t="n">
-        <v>648.9740789833944</v>
+        <v>1447.93323634577</v>
       </c>
       <c r="D2" t="n">
-        <v>629.7218622087987</v>
+        <v>1428.681019571174</v>
       </c>
       <c r="E2" t="n">
-        <v>607.7853263970603</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
         <v>377.2634748317415</v>
@@ -4325,55 +4327,55 @@
         <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M2" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N2" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>1862.189048931929</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V2" t="n">
-        <v>1504.699634058179</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W2" t="n">
-        <v>1504.699634058179</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X2" t="n">
-        <v>1092.979635225926</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y2" t="n">
-        <v>687.6423651808162</v>
+        <v>1486.601522543191</v>
       </c>
     </row>
     <row r="3">
@@ -4395,34 +4397,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>287.7093087981016</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L3" t="n">
-        <v>838.3748437825398</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="M3" t="n">
-        <v>1389.040378766978</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N3" t="n">
-        <v>1389.040378766978</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="O3" t="n">
-        <v>1389.040378766978</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P3" t="n">
         <v>1389.040378766978</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>820.5663062084095</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="C4" t="n">
-        <v>648.5937430873255</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D4" t="n">
-        <v>648.5937430873255</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>2036.202811004386</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>2036.202811004386</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1754.491343612415</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W4" t="n">
-        <v>1479.638939784928</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X4" t="n">
-        <v>1237.075043230733</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="Y4" t="n">
-        <v>1010.732274920475</v>
+        <v>792.3900115791711</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>1805.772648188046</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>1805.772648188046</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>1805.772648188046</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X5" t="n">
-        <v>1394.052649355793</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y5" t="n">
-        <v>1392.755783351087</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="6">
@@ -4632,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L6" t="n">
-        <v>201.1892506764427</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M6" t="n">
-        <v>201.1892506764427</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>786.7690422004985</v>
+        <v>789.6093675008983</v>
       </c>
       <c r="C7" t="n">
-        <v>614.7964790794144</v>
+        <v>617.6368043798143</v>
       </c>
       <c r="D7" t="n">
-        <v>614.7964790794144</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E7" t="n">
-        <v>482.385537240179</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4753,22 +4755,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668684</v>
+        <v>2005.245872296875</v>
       </c>
       <c r="U7" t="n">
-        <v>1727.553143168988</v>
+        <v>2005.245872296875</v>
       </c>
       <c r="V7" t="n">
-        <v>1445.841675777017</v>
+        <v>1723.534404904904</v>
       </c>
       <c r="W7" t="n">
-        <v>1445.841675777017</v>
+        <v>1448.682001077417</v>
       </c>
       <c r="X7" t="n">
-        <v>1203.277779222822</v>
+        <v>1206.118104523222</v>
       </c>
       <c r="Y7" t="n">
-        <v>976.9350109125642</v>
+        <v>979.775336212964</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1746.091355883837</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.190625897137</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D8" t="n">
-        <v>895.898005082137</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>1770.875776931517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.899316134962</v>
+        <v>2215.934791665822</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4871,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>1042.314822612062</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>870.3422594909778</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>707.0254866177485</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>540.817280770602</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>368.9555065451624</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>202.6985368393945</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>58.90226834754893</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4966,7 +4968,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M10" t="n">
         <v>1074.392270743914</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2222.764795206166</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2052.629747725301</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1809.290399951201</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U10" t="n">
-        <v>1529.105951451505</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V10" t="n">
-        <v>1529.105951451505</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="W10" t="n">
-        <v>1254.253547624018</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="X10" t="n">
-        <v>1254.253547624018</v>
+        <v>1458.823559634385</v>
       </c>
       <c r="Y10" t="n">
-        <v>1027.91077931376</v>
+        <v>1232.480791324127</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2045.049746842074</v>
+        <v>2429.413071721395</v>
       </c>
       <c r="C11" t="n">
-        <v>1618.149016855374</v>
+        <v>2002.512341734695</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.856396040375</v>
+        <v>1579.219720919695</v>
       </c>
       <c r="E11" t="n">
-        <v>768.8794561882321</v>
+        <v>1153.242781067553</v>
       </c>
       <c r="F11" t="n">
-        <v>343.7552743776322</v>
+        <v>728.1185992569528</v>
       </c>
       <c r="G11" t="n">
-        <v>343.7552743776322</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>896.2443403489208</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.632070870094</v>
+        <v>1900.530441767979</v>
       </c>
       <c r="N11" t="n">
-        <v>2381.073683267897</v>
+        <v>2876.78150025468</v>
       </c>
       <c r="O11" t="n">
-        <v>3181.5152956657</v>
+        <v>3721.926150405492</v>
       </c>
       <c r="P11" t="n">
-        <v>3181.5152956657</v>
+        <v>4430.20542956342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839608</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822646</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839608</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U11" t="n">
-        <v>3234.107524839608</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V11" t="n">
-        <v>2876.618109965857</v>
+        <v>4062.71005458994</v>
       </c>
       <c r="W11" t="n">
-        <v>2876.618109965857</v>
+        <v>3666.318704890287</v>
       </c>
       <c r="X11" t="n">
-        <v>2464.898111133604</v>
+        <v>3254.598706058035</v>
       </c>
       <c r="Y11" t="n">
-        <v>2464.898111133604</v>
+        <v>2849.261436012925</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>865.1237628945951</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="M12" t="n">
-        <v>1665.565375292398</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="N12" t="n">
-        <v>1665.565375292398</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021033</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899949</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267197</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795732</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541297</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S13" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T13" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U13" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V13" t="n">
-        <v>2081.788310425038</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>1806.935906597551</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.372010043357</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733099</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>659.673352611497</v>
+        <v>2429.413071721395</v>
       </c>
       <c r="C14" t="n">
-        <v>232.7726226247971</v>
+        <v>2002.512341734695</v>
       </c>
       <c r="D14" t="n">
-        <v>232.7726226247971</v>
+        <v>1579.219720919695</v>
       </c>
       <c r="E14" t="n">
-        <v>99.57902175332094</v>
+        <v>1153.242781067553</v>
       </c>
       <c r="F14" t="n">
-        <v>99.57902175332094</v>
+        <v>728.1185992569528</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332094</v>
+        <v>323.7795368464015</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136877</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L14" t="n">
-        <v>1943.23552968699</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M14" t="n">
-        <v>1943.23552968699</v>
+        <v>1900.530441767979</v>
       </c>
       <c r="N14" t="n">
-        <v>2743.677142084793</v>
+        <v>2876.78150025468</v>
       </c>
       <c r="O14" t="n">
-        <v>2743.677142084793</v>
+        <v>3721.926150405492</v>
       </c>
       <c r="P14" t="n">
-        <v>2778.022045335425</v>
+        <v>4430.20542956342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839608</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822646</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.71005458994</v>
       </c>
       <c r="W14" t="n">
-        <v>1896.57898578039</v>
+        <v>3666.318704890287</v>
       </c>
       <c r="X14" t="n">
-        <v>1484.858986948137</v>
+        <v>3254.598706058035</v>
       </c>
       <c r="Y14" t="n">
-        <v>1079.521716903027</v>
+        <v>2849.261436012925</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1992.543385290553</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>1875.037481808058</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>1771.197523323343</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>1666.49558959628</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>1572.849759279184</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>1478.795987496788</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>2225.861506656901</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N15" t="n">
-        <v>2225.861506656901</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O15" t="n">
-        <v>2517.90980780111</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>3234.107524839608</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>3234.107524839608</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>3234.107524839608</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>3152.783277400862</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>3010.90334169854</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>2826.135145618177</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>2621.162006757443</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>2424.64062959066</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>2261.163283357324</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>2121.470394710616</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>981.6550671738826</v>
+        <v>939.6932306516574</v>
       </c>
       <c r="C16" t="n">
-        <v>809.6825040527985</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D16" t="n">
-        <v>646.3657311795693</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.09517790992</v>
+        <v>2160.661780119843</v>
       </c>
       <c r="U16" t="n">
-        <v>1964.910729410221</v>
+        <v>1880.477331620147</v>
       </c>
       <c r="V16" t="n">
-        <v>1915.580104577888</v>
+        <v>1598.765864228176</v>
       </c>
       <c r="W16" t="n">
-        <v>1640.727700750401</v>
+        <v>1598.765864228176</v>
       </c>
       <c r="X16" t="n">
-        <v>1398.163804196206</v>
+        <v>1356.201967673981</v>
       </c>
       <c r="Y16" t="n">
-        <v>1171.821035885948</v>
+        <v>1129.859199363723</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5525,40 +5527,40 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5600,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1117.179460960259</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="C19" t="n">
-        <v>945.2068978391751</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D19" t="n">
-        <v>781.8901249659458</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>615.6819191187993</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>443.8201448933597</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>2129.379209345234</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1847.667741953263</v>
       </c>
       <c r="W19" t="n">
-        <v>1307.345429672325</v>
+        <v>1572.815338125776</v>
       </c>
       <c r="X19" t="n">
-        <v>1307.345429672325</v>
+        <v>1330.251441571581</v>
       </c>
       <c r="Y19" t="n">
-        <v>1307.345429672325</v>
+        <v>1103.908673261323</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5759,40 +5761,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5832,22 +5834,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>919.4582979645735</v>
+        <v>1087.137427111275</v>
       </c>
       <c r="C22" t="n">
-        <v>747.4857348434895</v>
+        <v>915.1648639901905</v>
       </c>
       <c r="D22" t="n">
-        <v>584.1689619702602</v>
+        <v>751.8480911169612</v>
       </c>
       <c r="E22" t="n">
-        <v>417.9607561231137</v>
+        <v>585.6398852698147</v>
       </c>
       <c r="F22" t="n">
-        <v>246.0989818976742</v>
+        <v>413.7781110443751</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>247.5211413386073</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>103.7248728467617</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U22" t="n">
-        <v>2135.09480276055</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V22" t="n">
-        <v>1853.383335368579</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.530931541092</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="X22" t="n">
-        <v>1335.967034986897</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="Y22" t="n">
-        <v>1109.624266676639</v>
+        <v>1277.30339582334</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6069,19 +6071,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>1076.248343539546</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>904.2757804184623</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
         <v>345.8675501573982</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1508.978208805807</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>1266.414312251612</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>1266.414312251612</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534674</v>
       </c>
       <c r="L26" t="n">
-        <v>1180.414480198223</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3874.10749691069</v>
+        <v>3350.260042750951</v>
       </c>
       <c r="C28" t="n">
-        <v>3702.134933789606</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="D28" t="n">
-        <v>3538.818160916377</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="E28" t="n">
-        <v>3372.60995506923</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="F28" t="n">
-        <v>3200.748180843791</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="G28" t="n">
-        <v>3034.491211138023</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>5089.420343820724</v>
       </c>
       <c r="T28" t="n">
-        <v>4871.796322517327</v>
+        <v>4846.080996046624</v>
       </c>
       <c r="U28" t="n">
-        <v>4673.235264684344</v>
+        <v>4565.896547546929</v>
       </c>
       <c r="V28" t="n">
-        <v>4391.523797292372</v>
+        <v>4284.185080154957</v>
       </c>
       <c r="W28" t="n">
-        <v>4116.671393464885</v>
+        <v>4009.33267632747</v>
       </c>
       <c r="X28" t="n">
-        <v>3874.10749691069</v>
+        <v>3766.768779773275</v>
       </c>
       <c r="Y28" t="n">
-        <v>3874.10749691069</v>
+        <v>3540.426011463017</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,19 +6451,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
@@ -6479,19 +6481,19 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
         <v>202.0712816655526</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1540.491264859194</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1540.491264859194</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1540.491264859194</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>1314.148496548936</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3857.021912842258</v>
+        <v>569.7211267295927</v>
       </c>
       <c r="C34" t="n">
-        <v>3685.049349721174</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D34" t="n">
-        <v>3521.732576847945</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E34" t="n">
-        <v>3355.524371000798</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F34" t="n">
-        <v>3183.662596775358</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>4374.43821322394</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W34" t="n">
-        <v>4099.585809396453</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X34" t="n">
-        <v>3857.021912842258</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y34" t="n">
-        <v>3857.021912842258</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6953,19 +6955,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7023,10 +7025,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.7150043171358</v>
+        <v>3278.556980224821</v>
       </c>
       <c r="C37" t="n">
-        <v>869.7150043171358</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="D37" t="n">
-        <v>706.3982314439065</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="E37" t="n">
-        <v>540.1900255967601</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F37" t="n">
-        <v>368.3282513713204</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U37" t="n">
-        <v>1785.357631525569</v>
+        <v>4494.193485020798</v>
       </c>
       <c r="V37" t="n">
-        <v>1785.357631525569</v>
+        <v>4212.482017628827</v>
       </c>
       <c r="W37" t="n">
-        <v>1528.787637893654</v>
+        <v>3937.62961380134</v>
       </c>
       <c r="X37" t="n">
-        <v>1286.223741339459</v>
+        <v>3695.065717247145</v>
       </c>
       <c r="Y37" t="n">
-        <v>1059.880973029201</v>
+        <v>3468.722948936887</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.79262694784</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491871</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C40" t="n">
-        <v>371.5828766281031</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D40" t="n">
-        <v>371.5828766281031</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E40" t="n">
-        <v>345.8675501573982</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7351,31 +7353,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.71574081896</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.71574081896</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044859</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545164</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.480477153193</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325706</v>
+        <v>1398.928807786976</v>
       </c>
       <c r="X40" t="n">
-        <v>960.0641767715107</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.7214084612527</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1778.311826641614</v>
+        <v>2429.413071721395</v>
       </c>
       <c r="C41" t="n">
-        <v>1778.311826641614</v>
+        <v>2002.512341734695</v>
       </c>
       <c r="D41" t="n">
-        <v>1355.019205826615</v>
+        <v>1579.219720919695</v>
       </c>
       <c r="E41" t="n">
-        <v>929.0422659744721</v>
+        <v>1153.242781067553</v>
       </c>
       <c r="F41" t="n">
-        <v>503.9180841638723</v>
+        <v>728.1185992569528</v>
       </c>
       <c r="G41" t="n">
-        <v>99.57902175332094</v>
+        <v>323.7795368464015</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332094</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679216</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>865.1237628945951</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1665.565375292398</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>2466.006987690201</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839608</v>
+        <v>4430.20542956342</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839608</v>
+        <v>4430.20542956342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839608</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822646</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U41" t="n">
-        <v>2908.814659757381</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V41" t="n">
-        <v>2908.814659757381</v>
+        <v>4062.71005458994</v>
       </c>
       <c r="W41" t="n">
-        <v>2603.497460978254</v>
+        <v>3666.318704890287</v>
       </c>
       <c r="X41" t="n">
-        <v>2603.497460978254</v>
+        <v>3254.598706058035</v>
       </c>
       <c r="Y41" t="n">
-        <v>2198.160190933144</v>
+        <v>2849.261436012925</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679216</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679216</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679216</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M42" t="n">
-        <v>64.68215049679216</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N42" t="n">
-        <v>865.1237628945951</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O42" t="n">
-        <v>1665.565375292398</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1775.131672269531</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C43" t="n">
-        <v>1603.159109148447</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="D43" t="n">
-        <v>1439.842336275218</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="E43" t="n">
-        <v>1273.634130428072</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="F43" t="n">
-        <v>1101.772356202632</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G43" t="n">
-        <v>1101.772356202632</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H43" t="n">
-        <v>1101.772356202632</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>1053.69449742648</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>1111.185825650638</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>1337.713426856475</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>1692.402748150896</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M43" t="n">
-        <v>2083.588543121146</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>2461.080053997182</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>2816.508182676945</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>3107.107394598846</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q43" t="n">
-        <v>3234.107524839608</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R43" t="n">
-        <v>3234.107524839608</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S43" t="n">
-        <v>3234.107524839608</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T43" t="n">
-        <v>2990.768177065508</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U43" t="n">
-        <v>2990.768177065508</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>2709.056709673537</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W43" t="n">
-        <v>2434.20430584605</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X43" t="n">
-        <v>2191.640409291855</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y43" t="n">
-        <v>1965.297640981597</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1765.976622961234</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1339.075892974534</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>915.7832721595344</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68215049679216</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679216</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679216</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136877</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1142.793917289187</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1607.830298401974</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>1607.830298401974</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>2408.271910799777</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957705</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757381</v>
+        <v>4782.921672994138</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2292.970335480043</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>1896.57898578039</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1896.57898578039</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1765.976622961234</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>72.128793458704</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>343.826282738295</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>343.826282738295</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>1075.152753954101</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.152753954101</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.152753954101</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O45" t="n">
-        <v>1075.152753954101</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P45" t="n">
-        <v>1791.350470992599</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>738.0414665636915</v>
+        <v>1124.059229422213</v>
       </c>
       <c r="C46" t="n">
-        <v>566.0689034426075</v>
+        <v>952.0866663011286</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7521305693782</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>236.5439247222317</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>64.68215049679216</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>64.68215049679216</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679216</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S46" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T46" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="U46" t="n">
-        <v>1917.872116097398</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V46" t="n">
-        <v>1636.160648705427</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="W46" t="n">
-        <v>1397.11410014021</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="X46" t="n">
-        <v>1154.550203586015</v>
+        <v>1540.567966444536</v>
       </c>
       <c r="Y46" t="n">
-        <v>928.2074352757572</v>
+        <v>1314.225198134278</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263964</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>300.4545145390017</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>260.5451336181234</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>268.1828480767087</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8073,7 +8075,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039387</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M5" t="n">
-        <v>181.710741931019</v>
+        <v>86.17533235500345</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L6" t="n">
-        <v>180.7888499740227</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>379.9589183367962</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039387</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
-        <v>110.6369203512731</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>461.402696225706</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425248</v>
+        <v>476.2554127892241</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.24813841662585</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241315</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O12" t="n">
-        <v>150.2275419446471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>917.0559591314644</v>
       </c>
       <c r="N14" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>72.26718327551603</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,16 +9014,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222299</v>
+        <v>951.5880457335785</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>318.1701737062716</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9173,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>763.430074865614</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>60.04398625350153</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9407,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>56.96224792398087</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>59.58495761848395</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9717,22 +9719,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>153.2864345924293</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843436</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10826,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10841,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10899,25 +10901,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>255.148922768857</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.806504044348</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>813.250087789768</v>
+        <v>382.698545585316</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11148,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234436</v>
+        <v>1022.176719479639</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321241</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>231.6742813916002</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>507.1649811951767</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>106.0949474728494</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>761.2286940029222</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>280.9020403556214</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>73.42412869296828</v>
       </c>
       <c r="H11" t="n">
-        <v>53.1552046426374</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -23473,7 +23475,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877164</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>289.8555055908597</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>107.9720312369318</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>122.2760440458058</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>230.0570341340414</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>67.62133122011058</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>125.579437855713</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>97.36294473060299</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>131.237875336876</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>108.1431374666139</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -24421,7 +24423,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>142.9755238000614</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>80.80715676004525</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>60.88629501226335</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.6172179931340906</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>132.5092198096454</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>159.273034034675</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919202</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.0995860936161</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>139.0879505826771</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>200.0421967183575</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>73.42412869296828</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>90.1634094113204</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>47.1854451728324</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25804,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>51.17380238873566</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>4.648410051341074</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>271.9875581536941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.60684960120417</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>35.44779670964741</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490845.6425285363</v>
+        <v>651853.0438233363</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490845.6425285363</v>
+        <v>651853.0438233363</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661977.8436037877</v>
+        <v>661977.8436037879</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661977.8436037879</v>
+        <v>661977.8436037878</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661977.8436037878</v>
+        <v>661977.8436037879</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661977.8436037879</v>
+        <v>661977.8436037878</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661977.8436037879</v>
+        <v>661977.8436037878</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490845.6425285366</v>
+        <v>651853.0438233363</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490845.6425285364</v>
+        <v>651853.0438233361</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>422270.9343080932</v>
+      </c>
+      <c r="C2" t="n">
+        <v>422270.9343080932</v>
+      </c>
+      <c r="D2" t="n">
         <v>422270.9343080933</v>
       </c>
-      <c r="C2" t="n">
-        <v>422270.934308093</v>
-      </c>
-      <c r="D2" t="n">
-        <v>422270.934308093</v>
-      </c>
       <c r="E2" t="n">
-        <v>302152.8212019906</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="F2" t="n">
-        <v>302152.8212019906</v>
+        <v>401240.9763519656</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.0422746488</v>
+        <v>407472.042274649</v>
       </c>
       <c r="H2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="I2" t="n">
         <v>407472.0422746491</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>407472.042274649</v>
-      </c>
-      <c r="J2" t="n">
-        <v>407472.0422746491</v>
       </c>
       <c r="K2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="L2" t="n">
-        <v>407472.0422746487</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="M2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="N2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746489</v>
       </c>
       <c r="O2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="P2" t="n">
-        <v>302152.8212019907</v>
+        <v>401240.9763519657</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346223</v>
+        <v>207432.2876165611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481353</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537389</v>
+        <v>173130.4912056397</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,25 +26426,25 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>64241.80185904322</v>
+        <v>85368.22527849907</v>
       </c>
       <c r="F4" t="n">
-        <v>64241.80185904322</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784771</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784771</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="I4" t="n">
+        <v>86696.74064784775</v>
+      </c>
+      <c r="J4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>86696.74064784778</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784776</v>
@@ -26451,13 +26453,13 @@
         <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="O4" t="n">
-        <v>64241.80185904328</v>
+        <v>85368.22527849907</v>
       </c>
       <c r="P4" t="n">
-        <v>64241.80185904328</v>
+        <v>85368.22527849907</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803248</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22823.77889669238</v>
+        <v>-22823.77889669249</v>
       </c>
       <c r="C6" t="n">
-        <v>163580.9545180446</v>
+        <v>163580.9545180448</v>
       </c>
       <c r="D6" t="n">
-        <v>163580.9545180446</v>
+        <v>163580.9545180449</v>
       </c>
       <c r="E6" t="n">
-        <v>113421.6338119231</v>
+        <v>32381.98534887313</v>
       </c>
       <c r="F6" t="n">
-        <v>188752.5849653854</v>
+        <v>239814.2729654341</v>
       </c>
       <c r="G6" t="n">
-        <v>114134.839626831</v>
+        <v>235399.6173548903</v>
       </c>
       <c r="H6" t="n">
+        <v>243025.2394383715</v>
+      </c>
+      <c r="I6" t="n">
         <v>243025.2394383717</v>
       </c>
-      <c r="I6" t="n">
-        <v>243025.2394383715</v>
-      </c>
       <c r="J6" t="n">
-        <v>97491.56950355509</v>
+        <v>97491.5695035551</v>
       </c>
       <c r="K6" t="n">
-        <v>243025.2394383715</v>
+        <v>243025.2394383716</v>
       </c>
       <c r="L6" t="n">
-        <v>243025.2394383713</v>
+        <v>243025.2394383716</v>
       </c>
       <c r="M6" t="n">
-        <v>180151.3024729976</v>
+        <v>69894.74823273189</v>
       </c>
       <c r="N6" t="n">
         <v>243025.2394383715</v>
       </c>
       <c r="O6" t="n">
-        <v>188752.5849653854</v>
+        <v>239814.2729654341</v>
       </c>
       <c r="P6" t="n">
-        <v>188752.5849653854</v>
+        <v>239814.2729654342</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099019</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.7339978717824</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.82210658548024</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.7339978717824</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>694.7339978717824</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>27.82210658548024</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,13 +27387,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>201.9824129405227</v>
       </c>
       <c r="F2" t="n">
-        <v>192.951978729274</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>54.08459725294853</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>106.2309441183564</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>59.54045732377736</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>304.4193999494624</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33.45929136783192</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,16 +27827,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>238.4391521182678</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>279.9424765091184</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27913,7 +27915,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>46.25593661269653</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>84.5108797118084</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.44323449605119</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,19 +28095,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28150,13 +28152,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28257,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.88308346872237e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.301791139648119e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28539,7 +28541,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-3.455055250327382e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28582,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28734,7 +28736,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.267230964991935e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28864,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -30241,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30423,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.757261086117069e-12</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>238.1458997847901</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M5" t="n">
-        <v>144.2794790315872</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L6" t="n">
-        <v>158.2737632597931</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P8" t="n">
-        <v>73.06155854104179</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099019</v>
+        <v>437.9433703566012</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.12346381202781</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099019</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>981.7058813107107</v>
       </c>
       <c r="O12" t="n">
-        <v>127.0556522224249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>879.6246962320326</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>34.69182146528473</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099019</v>
+        <v>928.4912652212505</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>294.9982839840494</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35893,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>726.1504520311679</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>36.8720965312793</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>19.53098502454905</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>38.24192940494229</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953426</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37561,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.6338360546274</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391562</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099019</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>775.859128433744</v>
+        <v>345.3075862292919</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099019</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>469.7337182957449</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>71.06229757805292</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7136072886926</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1357642.362335169</v>
+        <v>1356924.372220311</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760734</v>
+        <v>698313.6830760736</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>219.7347575130983</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -679,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>112.5426467655149</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>82.05371450212421</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>133.9073134702965</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>294.3155467214279</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>96.86449739519617</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.466802178091175</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>178.1189615886989</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.7074041394964</v>
+        <v>260.3583659365897</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>14.26000286531839</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0.8056189209971626</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1384,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>326.8715430934776</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>12.06219323947334</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1624,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>186.9176635037738</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1666,7 +1666,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1773,7 +1773,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.6299102505532</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>10.30445754230934</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>90.59228854219559</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>151.8031661589857</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.407937846523797</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686834</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>53.54046767788311</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>25.45817320599514</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>169.6356194967391</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.554365680750151</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>37.74361768022775</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>168.916462397167</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3666,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686744</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>40.0960608702954</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>221.4655660477372</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>123.0673923170407</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>26.21051072827946</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1229502582108</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>103.0767555432928</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>49.8759779271652</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1470.793562292065</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C2" t="n">
-        <v>1447.93323634577</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D2" t="n">
-        <v>1428.681019571174</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>549.9383681074142</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L2" t="n">
-        <v>1100.603903091852</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091852</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091852</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.26943807629</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.61838738015</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W2" t="n">
-        <v>1899.61838738015</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X2" t="n">
-        <v>1487.898388547897</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y2" t="n">
-        <v>1486.601522543191</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336855</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>838.3748437825399</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>838.3748437825399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.3900115791711</v>
+        <v>628.8783067918429</v>
       </c>
       <c r="C4" t="n">
-        <v>792.3900115791711</v>
+        <v>456.9057436707589</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>293.5889707975296</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>127.3807649503831</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4509,31 +4509,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754302</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X4" t="n">
-        <v>792.3900115791711</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y4" t="n">
-        <v>792.3900115791711</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>404.3578448076699</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.190625897137</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>895.898005082137</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505811</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596035</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>1867.421837588626</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>1455.701838756373</v>
+        <v>1229.54347914431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1357.858912094558</v>
+        <v>824.2062090992</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>789.6093675008983</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C7" t="n">
-        <v>617.6368043798143</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D7" t="n">
-        <v>454.3200315065851</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
         <v>454.3200315065851</v>
@@ -4722,7 +4722,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>2005.245872296875</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>2005.245872296875</v>
+        <v>1897.688190649854</v>
       </c>
       <c r="V7" t="n">
-        <v>1723.534404904904</v>
+        <v>1717.770047630966</v>
       </c>
       <c r="W7" t="n">
-        <v>1448.682001077417</v>
+        <v>1442.917643803479</v>
       </c>
       <c r="X7" t="n">
-        <v>1206.118104523222</v>
+        <v>1200.353747249284</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.775336212964</v>
+        <v>974.0109789390265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2078.856605666331</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C8" t="n">
-        <v>1651.955875679631</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>1228.663254864631</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>802.6863150124886</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336855</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336855</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091852</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091852</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.26943807629</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.934791665822</v>
+        <v>427.8148593995469</v>
       </c>
     </row>
     <row r="9">
@@ -4871,40 +4871,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1042.314822612062</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C10" t="n">
-        <v>870.3422594909778</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D10" t="n">
-        <v>707.0254866177485</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E10" t="n">
-        <v>540.817280770602</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F10" t="n">
-        <v>368.9555065451624</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6985368393945</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>58.90226834754893</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4968,7 +4968,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
         <v>1074.392270743914</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1981.571904688276</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1701.38745618858</v>
+        <v>2177.058882663693</v>
       </c>
       <c r="V10" t="n">
-        <v>1701.38745618858</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W10" t="n">
-        <v>1701.38745618858</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X10" t="n">
-        <v>1458.823559634385</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y10" t="n">
-        <v>1232.480791324127</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721395</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734695</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919695</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067553</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1185992569528</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>397.9453234049553</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
@@ -5044,49 +5044,49 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>896.2443403489208</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1900.530441767979</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>2876.78150025468</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3721.926150405492</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.20542956342</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067603</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822646</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.71005458994</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890287</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058035</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012925</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5117,28 +5117,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>936.8757529618963</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="M12" t="n">
-        <v>936.8757529618963</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>613.7585202956755</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>441.7859571745914</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>278.4691843013621</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>112.2609784542157</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5205,7 +5205,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292119</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292119</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292119</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>803.9244890077412</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721395</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734695</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919695</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067553</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569528</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>323.7795368464015</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
         <v>134.9738161355189</v>
@@ -5278,52 +5278,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1900.530441767979</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2876.78150025468</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405492</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.20542956342</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067603</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822646</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.71005458994</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890287</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058035</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012925</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="M15" t="n">
-        <v>1019.283297448028</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="N15" t="n">
-        <v>1019.283297448028</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>939.6932306516574</v>
+        <v>773.4850248045109</v>
       </c>
       <c r="C16" t="n">
-        <v>767.7206675305733</v>
+        <v>601.5124616834269</v>
       </c>
       <c r="D16" t="n">
-        <v>604.403894657344</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="E16" t="n">
         <v>438.1956888101976</v>
@@ -5442,7 +5442,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.661780119843</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U16" t="n">
-        <v>1880.477331620147</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V16" t="n">
-        <v>1598.765864228176</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W16" t="n">
-        <v>1598.765864228176</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X16" t="n">
-        <v>1356.201967673981</v>
+        <v>1189.993761826835</v>
       </c>
       <c r="Y16" t="n">
-        <v>1129.859199363723</v>
+        <v>963.6509935165766</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>913.7427045492574</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D19" t="n">
         <v>750.4259316760281</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2191.208378655123</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1947.869030881023</v>
       </c>
       <c r="U19" t="n">
-        <v>2129.379209345234</v>
+        <v>1947.869030881023</v>
       </c>
       <c r="V19" t="n">
-        <v>1847.667741953263</v>
+        <v>1666.157563489052</v>
       </c>
       <c r="W19" t="n">
-        <v>1572.815338125776</v>
+        <v>1391.305159661565</v>
       </c>
       <c r="X19" t="n">
-        <v>1330.251441571581</v>
+        <v>1148.74126310737</v>
       </c>
       <c r="Y19" t="n">
-        <v>1103.908673261323</v>
+        <v>922.3984947971121</v>
       </c>
     </row>
     <row r="20">
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5764,22 +5764,22 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.137427111275</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>915.1648639901905</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>751.8480911169612</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>585.6398852698147</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>413.7781110443751</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>247.5211413386073</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>103.7248728467617</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299907</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358278</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302486</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1503.646164133598</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1503.646164133598</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1277.30339582334</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1015214887346</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>939.1015214887346</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.582799500206</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1076.248343539546</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>904.2757804184623</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2065.542080025265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1783.830612633294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.978208805807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1266.414312251612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1266.414312251612</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>195.4640539534674</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572744</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991802</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478503</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629315</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787243</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3350.260042750951</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>3178.287479629867</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3178.287479629867</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3178.287479629867</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5089.420343820724</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>4846.080996046624</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>4565.896547546929</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>4284.185080154957</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>4009.33267632747</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>3766.768779773275</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>3540.426011463017</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,19 +6451,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
@@ -6481,19 +6481,19 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C31" t="n">
-        <v>202.0712816655526</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="D31" t="n">
-        <v>202.0712816655526</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="E31" t="n">
-        <v>202.0712816655526</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>202.0712816655526</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6663,10 +6663,10 @@
         <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6779,25 +6779,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>569.7211267295927</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>531.5962603859283</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>368.279487512699</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7016,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3278.556980224821</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810561</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>4774.377933520494</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>4494.193485020798</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>4212.482017628827</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>3937.62961380134</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>3695.065717247145</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>3468.722948936887</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7174,7 +7174,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7183,22 +7183,22 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7253,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>941.9189991784957</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>769.9464360574117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7353,31 +7353,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.492679006434</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1673.781211614463</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.928807786976</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.084967890561</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721395</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734695</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919695</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.242781067553</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>728.1185992569528</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>323.7795368464015</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7420,43 +7420,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4430.20542956342</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.20542956342</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067603</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822646</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.71005458994</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890287</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058035</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012925</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7493,25 +7493,25 @@
         <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>371.7744341585812</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L42" t="n">
-        <v>371.7744341585812</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M42" t="n">
-        <v>371.7744341585812</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="N42" t="n">
-        <v>1362.599788512017</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>1362.599788512017</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1362.599788512017</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.1560104286543</v>
+        <v>939.6932306516574</v>
       </c>
       <c r="C43" t="n">
-        <v>199.8455131387141</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D43" t="n">
-        <v>199.8455131387141</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E43" t="n">
-        <v>199.8455131387141</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F43" t="n">
-        <v>199.8455131387141</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G43" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7575,7 +7575,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979292</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498427</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T43" t="n">
-        <v>1819.976963724327</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U43" t="n">
-        <v>1539.792515224631</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V43" t="n">
-        <v>1258.08104783266</v>
+        <v>1683.452299343597</v>
       </c>
       <c r="W43" t="n">
-        <v>983.2286440051728</v>
+        <v>1408.59989551611</v>
       </c>
       <c r="X43" t="n">
-        <v>740.6647474509779</v>
+        <v>1166.035998961915</v>
       </c>
       <c r="Y43" t="n">
-        <v>514.3219791407199</v>
+        <v>939.6932306516574</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
@@ -7657,43 +7657,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4933.495569347233</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>4933.495569347233</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>5003.847243949505</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>4782.921672994138</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7730,25 +7730,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="L45" t="n">
-        <v>100.0769448789901</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="M45" t="n">
-        <v>355.3041521238506</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="N45" t="n">
-        <v>1444.619098596721</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
         <v>1908.7645754595</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1124.059229422213</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C46" t="n">
-        <v>952.0866663011286</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D46" t="n">
-        <v>847.9687314089136</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E46" t="n">
-        <v>681.7605255617672</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7812,7 +7812,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979292</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498427</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>2063.316311498427</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.131862998731</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.131862998731</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.131862998731</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X46" t="n">
-        <v>1540.567966444536</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y46" t="n">
-        <v>1314.225198134278</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0440798263964</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>268.1828480767087</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039387</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500345</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8312,10 +8312,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
-        <v>379.9589183367962</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039387</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>547.9768619480851</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>461.402696225706</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>476.2554127892241</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>502.2252835908839</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8789,7 +8789,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>917.0559591314644</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>653.2657740422958</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>502.2252835908839</v>
       </c>
       <c r="M15" t="n">
-        <v>951.5880457335785</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>383.4213315400418</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9412,7 +9412,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406089</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>53.23515454148313</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9722,7 +9722,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>566.8367873532371</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,16 +9731,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>105.0107851302144</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>129.8669649843436</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9886,7 +9886,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9962,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>100.0581876036184</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,7 +10211,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,19 +10664,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>427.4810510023246</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N38" t="n">
-        <v>924.1790155406089</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10910,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>392.4461590409599</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -10925,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>382.698545585316</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11141,16 +11141,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>510.3288389666712</v>
       </c>
       <c r="N42" t="n">
-        <v>1022.176719479639</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11162,7 +11162,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>106.0949474728494</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>280.9020403556214</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>73.42412869296828</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>158.0809632437118</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>107.9720312369318</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>122.2760440458058</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>229.8338000463436</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>77.8414084638609</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>125.579437855713</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>97.36294473060299</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189918815</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>108.1431374666139</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24612,16 +24612,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9755238000614</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6172179931340906</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>160.9917581079248</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>132.5092198096454</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>71.98949189919202</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189918905</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>200.0421967183575</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>73.42412869296828</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>47.1854451728324</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.6838419897719</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>4.648410051341074</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.60684960120417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>48.89490464996159</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651853.0438233363</v>
+        <v>651853.0438233361</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651853.0438233363</v>
+        <v>651853.0438233361</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661977.8436037879</v>
+        <v>661977.8436037877</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661977.8436037878</v>
+        <v>661977.8436037879</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661977.8436037879</v>
+        <v>661977.8436037878</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661977.8436037878</v>
+        <v>661977.8436037879</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651853.0438233363</v>
+        <v>651853.0438233361</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.934308093</v>
       </c>
       <c r="C2" t="n">
         <v>422270.9343080932</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.9343080933</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="E2" t="n">
         <v>401240.9763519657</v>
@@ -26328,31 +26328,31 @@
         <v>401240.9763519656</v>
       </c>
       <c r="G2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="H2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="I2" t="n">
         <v>407472.042274649</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>407472.0422746489</v>
+      </c>
+      <c r="K2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="L2" t="n">
         <v>407472.042274649</v>
-      </c>
-      <c r="I2" t="n">
-        <v>407472.0422746491</v>
-      </c>
-      <c r="J2" t="n">
-        <v>407472.042274649</v>
-      </c>
-      <c r="K2" t="n">
-        <v>407472.042274649</v>
-      </c>
-      <c r="L2" t="n">
-        <v>407472.0422746491</v>
       </c>
       <c r="M2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="N2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="O2" t="n">
-        <v>401240.9763519657</v>
+        <v>401240.9763519656</v>
       </c>
       <c r="P2" t="n">
         <v>401240.9763519657</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165611</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481353</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056397</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>85368.22527849907</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="F4" t="n">
-        <v>85368.22527849906</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="H4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="I4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="J4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="N4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="N4" t="n">
-        <v>86696.74064784778</v>
-      </c>
       <c r="O4" t="n">
-        <v>85368.22527849907</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="P4" t="n">
-        <v>85368.22527849907</v>
+        <v>85368.22527849906</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22823.77889669249</v>
+        <v>-22823.77889669262</v>
       </c>
       <c r="C6" t="n">
         <v>163580.9545180448</v>
       </c>
       <c r="D6" t="n">
-        <v>163580.9545180449</v>
+        <v>163580.9545180447</v>
       </c>
       <c r="E6" t="n">
-        <v>32381.98534887313</v>
+        <v>32309.46825247279</v>
       </c>
       <c r="F6" t="n">
-        <v>239814.2729654341</v>
+        <v>239741.7558690337</v>
       </c>
       <c r="G6" t="n">
-        <v>235399.6173548903</v>
+        <v>235348.5866927059</v>
       </c>
       <c r="H6" t="n">
-        <v>243025.2394383715</v>
+        <v>242974.2087761874</v>
       </c>
       <c r="I6" t="n">
-        <v>243025.2394383717</v>
+        <v>242974.2087761872</v>
       </c>
       <c r="J6" t="n">
-        <v>97491.5695035551</v>
+        <v>97440.53884137065</v>
       </c>
       <c r="K6" t="n">
-        <v>243025.2394383716</v>
+        <v>242974.2087761874</v>
       </c>
       <c r="L6" t="n">
-        <v>243025.2394383716</v>
+        <v>242974.2087761873</v>
       </c>
       <c r="M6" t="n">
-        <v>69894.74823273189</v>
+        <v>69843.71757054773</v>
       </c>
       <c r="N6" t="n">
-        <v>243025.2394383715</v>
+        <v>242974.2087761873</v>
       </c>
       <c r="O6" t="n">
-        <v>239814.2729654341</v>
+        <v>239741.7558690336</v>
       </c>
       <c r="P6" t="n">
-        <v>239814.2729654342</v>
+        <v>239741.7558690338</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
         <v>1250.961810987376</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717824</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658548024</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717824</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717824</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658548024</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>201.9824129405227</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>295.0601520784153</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27539,25 +27539,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>88.08944198106097</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>106.2309441183564</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>128.3161759654049</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>304.4193999494624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>238.4391521182678</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>100.7753911293525</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.9424765091184</v>
+        <v>155.291514712025</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>84.5108797118084</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>276.5769850937016</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.503700092245722e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>144.2794790315871</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>245.6677613624791</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391538</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557163</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="O5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
-        <v>357.2118800478177</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391538</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>437.9433703566012</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>981.7058813107107</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>879.6246962320326</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>479.7101968766544</v>
       </c>
       <c r="M15" t="n">
-        <v>928.4912652212505</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061629</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127487</v>
       </c>
       <c r="K22" t="n">
         <v>228.8157587937749</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>83.23994392538575</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>94.10236418953426</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36606,7 +36606,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48282579338712</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N38" t="n">
-        <v>886.8993927061629</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>369.3493785286319</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391566</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>345.3075862292919</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37861,16 +37861,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="N42" t="n">
-        <v>1000.833691266097</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>71.06229757805292</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
